--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999803302307957</v>
+        <v>0.9999507296423068</v>
       </c>
       <c r="E3">
-        <v>0.9999803302307957</v>
+        <v>0.9999507296423068</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9897215108384078</v>
+        <v>0.999976429191315</v>
       </c>
       <c r="E4">
-        <v>0.9897215108384078</v>
+        <v>0.999976429191315</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.01439727144889518</v>
+        <v>3.239886489345498E-09</v>
       </c>
       <c r="E5">
-        <v>0.01439727144889518</v>
+        <v>3.239886489345498E-09</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2.100983011257001E-12</v>
+        <v>1.256613515613315E-10</v>
       </c>
       <c r="E6">
-        <v>2.100983011257001E-12</v>
+        <v>1.256613515613315E-10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0008214947128167285</v>
+        <v>0.0005057763194410223</v>
       </c>
       <c r="E7">
-        <v>0.9991785052871832</v>
+        <v>0.999494223680559</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999455527556</v>
+        <v>0.9999999996400917</v>
       </c>
       <c r="E8">
-        <v>5.444724437975168E-08</v>
+        <v>3.599083253646995E-10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999999999998723</v>
+        <v>0.9999999986786048</v>
       </c>
       <c r="E9">
-        <v>1.27675647831893E-13</v>
+        <v>1.321395215470034E-09</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03422502300133332</v>
+        <v>3.834142887032388E-05</v>
       </c>
       <c r="E10">
-        <v>0.9657749769986667</v>
+        <v>0.9999616585711297</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9996997241473967</v>
+        <v>0.9999920173804305</v>
       </c>
       <c r="E11">
-        <v>0.0003002758526032823</v>
+        <v>7.982619569468774E-06</v>
       </c>
       <c r="F11">
-        <v>6.437835693359375</v>
+        <v>8.070170402526855</v>
       </c>
       <c r="G11">
         <v>0.5</v>
